--- a/data/stat probs/jabari walker stat probs - condition.xlsx
+++ b/data/stat probs/jabari walker stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -589,28 +589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1585,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1779,22 +1779,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2167,22 +2167,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2553,22 +2553,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2871,778 +2871,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3711,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3964,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4033,22 +3261,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4286,7 +3514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,28 +3583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -4640,7 +3868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4709,28 +3937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -4994,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5063,28 +4291,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -5596,6 +4824,970 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>77</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>85</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5673,28 +5865,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -6215,6 +6407,360 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6283,28 +6829,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -6315,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -6333,10 +6879,10 @@
         <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6893,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>69</v>
@@ -6379,10 +6925,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -6411,10 +6957,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -6443,10 +6989,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
@@ -6475,16 +7021,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6507,10 +7053,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -6635,10 +7181,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6667,10 +7213,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6699,10 +7245,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6731,10 +7277,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6816,360 +7362,6 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7184,7 +7376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7247,28 +7439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -7279,28 +7471,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -7311,28 +7503,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -7343,28 +7535,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -7375,16 +7567,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7393,10 +7585,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -7407,16 +7599,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7439,16 +7631,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7471,16 +7663,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7503,10 +7695,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7524,6 +7716,262 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>81</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7601,28 +8049,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7633,28 +8081,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -7665,28 +8113,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -7697,10 +8145,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -7709,16 +8157,16 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -7729,16 +8177,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7747,10 +8195,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -7767,10 +8215,10 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7793,16 +8241,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7825,16 +8273,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7857,10 +8305,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7889,10 +8337,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7921,10 +8369,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7953,10 +8401,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7985,10 +8433,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8017,10 +8465,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8049,10 +8497,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8081,10 +8529,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8113,10 +8561,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8211,28 +8659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8243,28 +8691,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -8275,28 +8723,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -8307,10 +8755,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -8319,16 +8767,16 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -8339,16 +8787,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8357,10 +8805,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -8377,10 +8825,10 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8403,16 +8851,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8435,16 +8883,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8467,10 +8915,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8499,10 +8947,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8531,10 +8979,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8563,10 +9011,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8595,10 +9043,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8627,10 +9075,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8659,10 +9107,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8691,10 +9139,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8723,10 +9171,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8821,28 +9269,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -8853,16 +9301,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>50</v>
@@ -8871,10 +9319,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -8885,10 +9333,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -8903,10 +9351,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -8917,16 +9365,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8935,10 +9383,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -8949,16 +9397,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8981,16 +9429,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9013,16 +9461,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9045,10 +9493,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9077,10 +9525,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9109,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9141,10 +9589,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9173,10 +9621,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9205,10 +9653,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9237,10 +9685,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9269,10 +9717,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9301,10 +9749,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9333,10 +9781,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9431,28 +9879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -9463,16 +9911,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>50</v>
@@ -9481,10 +9929,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -9495,10 +9943,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -9513,10 +9961,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -9527,16 +9975,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9545,10 +9993,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -9559,16 +10007,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9591,16 +10039,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9623,16 +10071,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9655,10 +10103,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9687,10 +10135,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9719,10 +10167,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9751,10 +10199,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9783,10 +10231,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9815,10 +10263,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9847,10 +10295,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9879,10 +10327,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9911,10 +10359,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9943,10 +10391,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10041,28 +10489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10363,28 +10811,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10685,28 +11133,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -11231,28 +11679,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -11777,28 +12225,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -12323,16 +12771,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12341,10 +12789,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -12645,16 +13093,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12663,10 +13111,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -12967,22 +13415,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13385,22 +13833,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13803,22 +14251,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14349,22 +14797,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14895,22 +15343,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15441,22 +15889,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15987,28 +16435,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16213,28 +16661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -16759,28 +17207,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16991,10 +17439,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17217,10 +17665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17437,28 +17885,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +18239,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -18145,10 +18593,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -18307,10 +18755,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -18469,22 +18917,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18887,22 +19335,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19305,28 +19753,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19563,28 +20011,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -20173,28 +20621,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -20431,28 +20879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -20625,28 +21073,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -20819,28 +21267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21013,28 +21461,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21213,10 +21661,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21343,10 +21791,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21473,10 +21921,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21603,10 +22051,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21727,16 +22175,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21889,28 +22337,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -22499,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22661,22 +23109,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22887,22 +23335,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23113,22 +23561,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23307,22 +23755,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23501,22 +23949,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23759,22 +24207,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24017,22 +24465,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24371,22 +24819,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24725,10 +25173,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -24737,16 +25185,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25015,16 +25463,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25033,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -25433,10 +25881,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -25445,16 +25893,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25723,22 +26171,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25917,22 +26365,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26117,10 +26565,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26247,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26371,22 +26819,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26533,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26695,22 +27143,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27017,22 +27465,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27339,16 +27787,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27565,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27583,10 +28031,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -27983,16 +28431,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28215,16 +28663,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28377,16 +28825,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28533,22 +28981,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28983,22 +29431,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29433,22 +29881,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29723,22 +30171,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30013,22 +30461,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30303,22 +30751,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30691,16 +31139,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31175,10 +31623,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -31193,10 +31641,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31369,10 +31817,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -31387,10 +31835,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31765,10 +32213,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31991,10 +32439,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32211,28 +32659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32469,28 +32917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32727,22 +33175,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
